--- a/packages/front/assets/import-employees-example.xlsx
+++ b/packages/front/assets/import-employees-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBDBD4B-0DC6-4208-BFC7-29EB1765E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461BA15E-53C3-4000-BBB3-703AC53D31F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="18432" windowHeight="9528" xr2:uid="{D4CDC12D-6BDC-4F6F-8687-933489DCEE2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4CDC12D-6BDC-4F6F-8687-933489DCEE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Роль</t>
   </si>
@@ -42,18 +42,9 @@
     <t>Код организации</t>
   </si>
   <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
     <t>Должность</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Номер телефона</t>
   </si>
   <si>
@@ -63,35 +54,74 @@
     <t>ответственный инженер</t>
   </si>
   <si>
-    <t>Козловский</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
     <t>сантехник</t>
   </si>
   <si>
-    <t>kozl.i@gmail.com</t>
-  </si>
-  <si>
-    <t>Потапов</t>
-  </si>
-  <si>
-    <t>Кирилл</t>
-  </si>
-  <si>
     <t>главный инженер</t>
   </si>
   <si>
-    <t>pot.pov@gmail.com</t>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>Ссылка на источник</t>
+  </si>
+  <si>
+    <t>Часовой пояс от НСК</t>
+  </si>
+  <si>
+    <t>Категория поиска</t>
+  </si>
+  <si>
+    <t>Комментарий от сотрудника</t>
+  </si>
+  <si>
+    <t>Комментарий от менеджера по поиску специалистов</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>сервисный</t>
+  </si>
+  <si>
+    <t>ИТ</t>
+  </si>
+  <si>
+    <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>Кирилл Перилов</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>срочный</t>
+  </si>
+  <si>
+    <t>текущий</t>
+  </si>
+  <si>
+    <t>Отличный специалист</t>
+  </si>
+  <si>
+    <t>Требует перепроверки выполнения задач</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,15 +150,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -173,21 +194,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,95 +517,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91785FA6-D3D4-44B7-9863-582C9EA7BA41}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="52.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>88002223441</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>88002223441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
+      <c r="E3">
         <v>88006644839</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{D866A819-9FA8-4B6E-924B-6C7CAF60A025}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6D408E34-92C4-4C78-9313-DCA7575F87CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>